--- a/Dados de Contas/Despesas Pendentes.xlsx
+++ b/Dados de Contas/Despesas Pendentes.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27921"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28015"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8E6A83F9-BAE7-4BAE-ACCC-2222C636E940}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{F38A1E6F-5841-4357-A039-71DE734F5E77}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -12,7 +12,7 @@
     <sheet name="Despesas Parceladas" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Despesas Pendentes'!$A$1:$H$33</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Despesas Pendentes'!$A$1:$H$35</definedName>
   </definedNames>
   <calcPr calcId="191028"/>
   <extLst>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="282" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="292" uniqueCount="76">
   <si>
     <t>Faturamento</t>
   </si>
@@ -61,6 +61,81 @@
     <t>Situação</t>
   </si>
   <si>
+    <t>Carro</t>
+  </si>
+  <si>
+    <t>Km Auto Center Bauru 10/10</t>
+  </si>
+  <si>
+    <t>Nubank Crédito</t>
+  </si>
+  <si>
+    <t>Pedro</t>
+  </si>
+  <si>
+    <t>Futura</t>
+  </si>
+  <si>
+    <t>Lazer</t>
+  </si>
+  <si>
+    <t>Parques da Disney 10/10</t>
+  </si>
+  <si>
+    <t>Pix Nubank</t>
+  </si>
+  <si>
+    <t>Km Auto Center Bauru 9/10</t>
+  </si>
+  <si>
+    <t>Parques da Disney 9/10</t>
+  </si>
+  <si>
+    <t>Km Auto Center Bauru 8/10</t>
+  </si>
+  <si>
+    <t>Parques da Disney 8/10</t>
+  </si>
+  <si>
+    <t>Km Auto Center Bauru 7/10</t>
+  </si>
+  <si>
+    <t>Parques da Disney 7/10</t>
+  </si>
+  <si>
+    <t>Parques da Disney 6/10</t>
+  </si>
+  <si>
+    <t>Km Auto Center Bauru 6/10</t>
+  </si>
+  <si>
+    <t>Parques da Disney 5/10</t>
+  </si>
+  <si>
+    <t>Km Auto Center Bauru 5/10</t>
+  </si>
+  <si>
+    <t>Seguro Carro</t>
+  </si>
+  <si>
+    <t>Yuzzi Seguradora</t>
+  </si>
+  <si>
+    <t>Planejamento</t>
+  </si>
+  <si>
+    <t>Parques da Disney 4/10</t>
+  </si>
+  <si>
+    <t>VIVO</t>
+  </si>
+  <si>
+    <t>Conta VIVO</t>
+  </si>
+  <si>
+    <t>Barbearia</t>
+  </si>
+  <si>
     <t>Porquinho</t>
   </si>
   <si>
@@ -70,136 +145,82 @@
     <t>Investimento</t>
   </si>
   <si>
-    <t>Pedro</t>
-  </si>
-  <si>
-    <t>Planejamento</t>
-  </si>
-  <si>
-    <t>Carro</t>
-  </si>
-  <si>
-    <t>Km Auto Center Bauru 6/10</t>
-  </si>
-  <si>
-    <t>Nubank Crédito</t>
-  </si>
-  <si>
-    <t>Futura</t>
-  </si>
-  <si>
-    <t>Km Auto Center Bauru 7/10</t>
-  </si>
-  <si>
-    <t>Km Auto Center Bauru 8/10</t>
-  </si>
-  <si>
-    <t>Km Auto Center Bauru 9/10</t>
-  </si>
-  <si>
-    <t>Km Auto Center Bauru 10/10</t>
-  </si>
-  <si>
-    <t>Lazer</t>
-  </si>
-  <si>
-    <t>Parques da Disney 8/10</t>
-  </si>
-  <si>
-    <t>Pix Nubank</t>
-  </si>
-  <si>
-    <t>Parques da Disney 9/10</t>
-  </si>
-  <si>
-    <t>Parques da Disney 10/10</t>
-  </si>
-  <si>
-    <t>Parques da Disney 5/10</t>
-  </si>
-  <si>
-    <t>Parques da Disney 6/10</t>
-  </si>
-  <si>
-    <t>Parques da Disney 7/10</t>
-  </si>
-  <si>
-    <t>Seguro Carro</t>
-  </si>
-  <si>
-    <t>Yuzzi Seguradora</t>
-  </si>
-  <si>
-    <t>Parques da Disney 4/10</t>
-  </si>
-  <si>
-    <t>Km Auto Center Bauru 5/10</t>
-  </si>
-  <si>
-    <t>VIVO</t>
-  </si>
-  <si>
-    <t>Conta VIVO</t>
-  </si>
-  <si>
-    <t>Barbearia</t>
+    <t>Km Auto Center Bauru 4/10</t>
+  </si>
+  <si>
+    <t>Próximo Mês</t>
   </si>
   <si>
     <t>Parques da Disney 3/10</t>
   </si>
   <si>
-    <t>Km Auto Center Bauru 4/10</t>
+    <t>Km Auto Center Bauru 3/10</t>
+  </si>
+  <si>
+    <t>Imposto</t>
+  </si>
+  <si>
+    <t>Mensalidade MEI</t>
+  </si>
+  <si>
+    <t>Pendente</t>
+  </si>
+  <si>
+    <t>Alemao Pneus e Serviços</t>
+  </si>
+  <si>
+    <t>Visa Infine</t>
   </si>
   <si>
     <t>Combustível</t>
   </si>
   <si>
-    <t>2 Tanques</t>
-  </si>
-  <si>
-    <t>Débito Nubank</t>
-  </si>
-  <si>
-    <t>Próximo Mês</t>
-  </si>
-  <si>
-    <t>Parques da Disney 2/10</t>
-  </si>
-  <si>
-    <t>Km Auto Center Bauru 3/10</t>
-  </si>
-  <si>
-    <t>Pedagio BH-BAURU</t>
-  </si>
-  <si>
-    <t>Imposto</t>
-  </si>
-  <si>
-    <t>Mensalidade MEI</t>
-  </si>
-  <si>
-    <t>Km Auto Center Bauru 2/10</t>
-  </si>
-  <si>
-    <t>Pendente</t>
-  </si>
-  <si>
-    <t>Assinaturas</t>
-  </si>
-  <si>
-    <t>Amazon Prime Br</t>
-  </si>
-  <si>
-    <t>Emprestimo</t>
-  </si>
-  <si>
-    <t>Emprestimo para Lucas</t>
-  </si>
-  <si>
-    <t>Lucas</t>
-  </si>
-  <si>
-    <t>A Receber</t>
+    <t>Carrefour Sams</t>
+  </si>
+  <si>
+    <t>Posto Pratinha e Loca</t>
+  </si>
+  <si>
+    <t>Lanche</t>
+  </si>
+  <si>
+    <t>Garapao</t>
+  </si>
+  <si>
+    <t>Bebidas</t>
+  </si>
+  <si>
+    <t>Point Beer Betania</t>
+  </si>
+  <si>
+    <t>Restaurante</t>
+  </si>
+  <si>
+    <t>Restaurante da Grazi</t>
+  </si>
+  <si>
+    <t>Gege Hot Dog</t>
+  </si>
+  <si>
+    <t>Saúde</t>
+  </si>
+  <si>
+    <t>Raia</t>
+  </si>
+  <si>
+    <t>Colorado Conveniencia</t>
+  </si>
+  <si>
+    <t>Acai Company</t>
+  </si>
+  <si>
+    <t>Outros</t>
+  </si>
+  <si>
+    <t>Recarga Telefone Vó Leda</t>
+  </si>
+  <si>
+    <t>Reembolso</t>
   </si>
   <si>
     <t>Despesa</t>
@@ -282,7 +303,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="12">
+  <fills count="13">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -321,36 +342,42 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.79998168889431442"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFD4A6F7"/>
+        <fgColor theme="7" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.39997558519241921"/>
+        <fgColor theme="4" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.39997558519241921"/>
+        <fgColor rgb="FFED3232"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -401,11 +428,39 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color theme="0" tint="-4.9989318521683403E-2"/>
+      </left>
+      <right style="thin">
+        <color theme="0" tint="-4.9989318521683403E-2"/>
+      </right>
+      <top style="thin">
+        <color theme="0" tint="-4.9989318521683403E-2"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0"/>
+      </left>
+      <right style="thin">
+        <color theme="0"/>
+      </right>
+      <top style="thin">
+        <color theme="0"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="70">
+  <cellXfs count="69">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -443,40 +498,58 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="7" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="7" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="7" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="14" fontId="0" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="14" fontId="0" fillId="8" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
@@ -485,127 +558,102 @@
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="8" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="9" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="9" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="9" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="0" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="14" fontId="0" fillId="8" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="5" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="11" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="12" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="12" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="14" fontId="0" fillId="10" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="11" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="6" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="0" fillId="8" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -616,13 +664,13 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
   <colors>
     <mruColors>
+      <color rgb="FFF0EDED"/>
+      <color rgb="FFED3232"/>
       <color rgb="FFD4A6F7"/>
       <color rgb="FFE7CFFA"/>
-      <color rgb="FFED3232"/>
       <color rgb="FFFCFCCA"/>
       <color rgb="FFD9E1F2"/>
       <color rgb="FFFFE6E6"/>
-      <color rgb="FFF0EDED"/>
       <color rgb="FFEED9FF"/>
       <color rgb="FFE002A1"/>
       <color rgb="FFFCDCF9"/>
@@ -936,10 +984,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{46ED8187-7945-4150-89A5-9803D0435B02}">
-  <dimension ref="A1:I34"/>
+  <dimension ref="A1:I36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
-      <selection activeCell="H61" sqref="A35:H61"/>
+    <sheetView tabSelected="1" topLeftCell="A26" workbookViewId="0">
+      <selection activeCell="B36" sqref="B36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -954,541 +1002,541 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
-      <c r="A1" s="16" t="s">
+      <c r="A1" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="16" t="s">
+      <c r="B1" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="16" t="s">
+      <c r="C1" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="16" t="s">
+      <c r="D1" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="16" t="s">
+      <c r="E1" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="16" t="s">
+      <c r="F1" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="15" t="s">
+      <c r="G1" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="16" t="s">
+      <c r="H1" s="14" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:9">
-      <c r="A2" s="17">
+      <c r="A2" s="41">
+        <v>45748</v>
+      </c>
+      <c r="B2" s="42">
+        <v>45457</v>
+      </c>
+      <c r="C2" s="43" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" s="43" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" s="44">
+        <v>177.8</v>
+      </c>
+      <c r="F2" s="45" t="s">
+        <v>10</v>
+      </c>
+      <c r="G2" s="45" t="s">
+        <v>11</v>
+      </c>
+      <c r="H2" s="45" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
+      <c r="A3" s="41">
+        <v>45767</v>
+      </c>
+      <c r="B3" s="47">
+        <v>45495</v>
+      </c>
+      <c r="C3" s="48" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3" s="48" t="s">
+        <v>14</v>
+      </c>
+      <c r="E3" s="49">
+        <v>198</v>
+      </c>
+      <c r="F3" s="45" t="s">
+        <v>15</v>
+      </c>
+      <c r="G3" s="45" t="s">
+        <v>11</v>
+      </c>
+      <c r="H3" s="45" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
+      <c r="A4" s="41">
+        <v>45717</v>
+      </c>
+      <c r="B4" s="42">
+        <v>45457</v>
+      </c>
+      <c r="C4" s="43" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4" s="43" t="s">
+        <v>16</v>
+      </c>
+      <c r="E4" s="44">
+        <v>177.8</v>
+      </c>
+      <c r="F4" s="45" t="s">
+        <v>10</v>
+      </c>
+      <c r="G4" s="45" t="s">
+        <v>11</v>
+      </c>
+      <c r="H4" s="45" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
+      <c r="A5" s="41">
+        <v>45736</v>
+      </c>
+      <c r="B5" s="47">
+        <v>45495</v>
+      </c>
+      <c r="C5" s="48" t="s">
+        <v>13</v>
+      </c>
+      <c r="D5" s="48" t="s">
+        <v>17</v>
+      </c>
+      <c r="E5" s="49">
+        <v>198</v>
+      </c>
+      <c r="F5" s="45" t="s">
+        <v>15</v>
+      </c>
+      <c r="G5" s="45" t="s">
+        <v>11</v>
+      </c>
+      <c r="H5" s="45" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
+      <c r="A6" s="41">
+        <v>45689</v>
+      </c>
+      <c r="B6" s="42">
+        <v>45457</v>
+      </c>
+      <c r="C6" s="43" t="s">
+        <v>8</v>
+      </c>
+      <c r="D6" s="43" t="s">
+        <v>18</v>
+      </c>
+      <c r="E6" s="44">
+        <v>177.8</v>
+      </c>
+      <c r="F6" s="45" t="s">
+        <v>10</v>
+      </c>
+      <c r="G6" s="45" t="s">
+        <v>11</v>
+      </c>
+      <c r="H6" s="45" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
+      <c r="A7" s="41">
+        <v>45708</v>
+      </c>
+      <c r="B7" s="47">
+        <v>45495</v>
+      </c>
+      <c r="C7" s="48" t="s">
+        <v>13</v>
+      </c>
+      <c r="D7" s="48" t="s">
+        <v>19</v>
+      </c>
+      <c r="E7" s="49">
+        <v>198</v>
+      </c>
+      <c r="F7" s="45" t="s">
+        <v>15</v>
+      </c>
+      <c r="G7" s="45" t="s">
+        <v>11</v>
+      </c>
+      <c r="H7" s="45" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
+      <c r="A8" s="41">
+        <v>45658</v>
+      </c>
+      <c r="B8" s="42">
+        <v>45457</v>
+      </c>
+      <c r="C8" s="43" t="s">
+        <v>8</v>
+      </c>
+      <c r="D8" s="43" t="s">
+        <v>20</v>
+      </c>
+      <c r="E8" s="44">
+        <v>177.8</v>
+      </c>
+      <c r="F8" s="45" t="s">
+        <v>10</v>
+      </c>
+      <c r="G8" s="45" t="s">
+        <v>11</v>
+      </c>
+      <c r="H8" s="45" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
+      <c r="A9" s="41">
+        <v>45677</v>
+      </c>
+      <c r="B9" s="47">
+        <v>45495</v>
+      </c>
+      <c r="C9" s="48" t="s">
+        <v>13</v>
+      </c>
+      <c r="D9" s="48" t="s">
+        <v>21</v>
+      </c>
+      <c r="E9" s="49">
+        <v>198</v>
+      </c>
+      <c r="F9" s="45" t="s">
+        <v>15</v>
+      </c>
+      <c r="G9" s="45" t="s">
+        <v>11</v>
+      </c>
+      <c r="H9" s="45" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
+      <c r="A10" s="41">
+        <v>45646</v>
+      </c>
+      <c r="B10" s="47">
+        <v>45495</v>
+      </c>
+      <c r="C10" s="48" t="s">
+        <v>13</v>
+      </c>
+      <c r="D10" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="E10" s="49">
+        <v>198</v>
+      </c>
+      <c r="F10" s="45" t="s">
+        <v>15</v>
+      </c>
+      <c r="G10" s="45" t="s">
+        <v>11</v>
+      </c>
+      <c r="H10" s="45" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
+      <c r="A11" s="41">
+        <v>45627</v>
+      </c>
+      <c r="B11" s="42">
+        <v>45457</v>
+      </c>
+      <c r="C11" s="43" t="s">
+        <v>8</v>
+      </c>
+      <c r="D11" s="43" t="s">
+        <v>23</v>
+      </c>
+      <c r="E11" s="44">
+        <v>177.8</v>
+      </c>
+      <c r="F11" s="45" t="s">
+        <v>10</v>
+      </c>
+      <c r="G11" s="45" t="s">
+        <v>11</v>
+      </c>
+      <c r="H11" s="45" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
+      <c r="A12" s="41">
+        <v>45616</v>
+      </c>
+      <c r="B12" s="47">
+        <v>45495</v>
+      </c>
+      <c r="C12" s="48" t="s">
+        <v>13</v>
+      </c>
+      <c r="D12" s="48" t="s">
+        <v>24</v>
+      </c>
+      <c r="E12" s="49">
+        <v>198</v>
+      </c>
+      <c r="F12" s="45" t="s">
+        <v>15</v>
+      </c>
+      <c r="G12" s="45" t="s">
+        <v>11</v>
+      </c>
+      <c r="H12" s="45" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" s="23" customFormat="1">
+      <c r="A13" s="41">
+        <v>45597</v>
+      </c>
+      <c r="B13" s="42">
+        <v>45457</v>
+      </c>
+      <c r="C13" s="43" t="s">
+        <v>8</v>
+      </c>
+      <c r="D13" s="43" t="s">
+        <v>25</v>
+      </c>
+      <c r="E13" s="44">
+        <v>177.8</v>
+      </c>
+      <c r="F13" s="45" t="s">
+        <v>10</v>
+      </c>
+      <c r="G13" s="45" t="s">
+        <v>11</v>
+      </c>
+      <c r="H13" s="46" t="s">
+        <v>12</v>
+      </c>
+      <c r="I13" s="24"/>
+    </row>
+    <row r="14" spans="1:9">
+      <c r="A14" s="17">
+        <v>45585</v>
+      </c>
+      <c r="B14" s="17">
+        <v>45585</v>
+      </c>
+      <c r="C14" s="18" t="s">
+        <v>26</v>
+      </c>
+      <c r="D14" s="18" t="s">
+        <v>27</v>
+      </c>
+      <c r="E14" s="26">
+        <v>200</v>
+      </c>
+      <c r="F14" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="G14" s="18" t="s">
+        <v>11</v>
+      </c>
+      <c r="H14" s="22" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
+      <c r="A15" s="17">
+        <v>45585</v>
+      </c>
+      <c r="B15" s="29">
+        <v>45495</v>
+      </c>
+      <c r="C15" s="30" t="s">
+        <v>13</v>
+      </c>
+      <c r="D15" s="30" t="s">
+        <v>29</v>
+      </c>
+      <c r="E15" s="31">
+        <v>198</v>
+      </c>
+      <c r="F15" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="G15" s="18" t="s">
+        <v>11</v>
+      </c>
+      <c r="H15" s="18" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
+      <c r="A16" s="17">
+        <v>45582</v>
+      </c>
+      <c r="B16" s="17">
+        <v>45582</v>
+      </c>
+      <c r="C16" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="D16" s="18" t="s">
+        <v>31</v>
+      </c>
+      <c r="E16" s="26">
+        <v>45</v>
+      </c>
+      <c r="F16" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="G16" s="18" t="s">
+        <v>11</v>
+      </c>
+      <c r="H16" s="22" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9">
+      <c r="A17" s="21">
+        <v>45566</v>
+      </c>
+      <c r="B17" s="21">
+        <v>45566</v>
+      </c>
+      <c r="C17" s="22" t="s">
+        <v>32</v>
+      </c>
+      <c r="D17" s="22" t="s">
+        <v>32</v>
+      </c>
+      <c r="E17" s="25">
+        <v>35</v>
+      </c>
+      <c r="F17" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="G17" s="18" t="s">
+        <v>11</v>
+      </c>
+      <c r="H17" s="22" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9">
+      <c r="A18" s="17">
         <v>45474</v>
       </c>
-      <c r="B2" s="17">
+      <c r="B18" s="17">
         <v>45474</v>
       </c>
-      <c r="C2" s="18" t="s">
+      <c r="C18" s="18" t="s">
+        <v>33</v>
+      </c>
+      <c r="D18" s="18" t="s">
+        <v>34</v>
+      </c>
+      <c r="E18" s="26">
+        <v>0</v>
+      </c>
+      <c r="F18" s="18" t="s">
+        <v>35</v>
+      </c>
+      <c r="G18" s="18" t="s">
+        <v>11</v>
+      </c>
+      <c r="H18" s="18" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9">
+      <c r="A19" s="17">
+        <v>45566</v>
+      </c>
+      <c r="B19" s="19">
+        <v>45457</v>
+      </c>
+      <c r="C19" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="18" t="s">
-        <v>9</v>
-      </c>
-      <c r="E2" s="47">
-        <v>0</v>
-      </c>
-      <c r="F2" s="18" t="s">
+      <c r="D19" s="20" t="s">
+        <v>36</v>
+      </c>
+      <c r="E19" s="27">
+        <v>177.8</v>
+      </c>
+      <c r="F19" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="G2" s="18" t="s">
-        <v>11</v>
-      </c>
-      <c r="H2" s="18" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9">
-      <c r="A3" s="17">
-        <v>45627</v>
-      </c>
-      <c r="B3" s="44">
-        <v>45457</v>
-      </c>
-      <c r="C3" s="45" t="s">
+      <c r="G19" s="18" t="s">
+        <v>11</v>
+      </c>
+      <c r="H19" s="22" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9">
+      <c r="A20" s="32">
+        <v>45555</v>
+      </c>
+      <c r="B20" s="32">
+        <v>45555</v>
+      </c>
+      <c r="C20" s="36" t="s">
+        <v>26</v>
+      </c>
+      <c r="D20" s="36" t="s">
+        <v>27</v>
+      </c>
+      <c r="E20" s="37">
+        <v>200</v>
+      </c>
+      <c r="F20" s="36" t="s">
+        <v>15</v>
+      </c>
+      <c r="G20" s="36" t="s">
+        <v>11</v>
+      </c>
+      <c r="H20" s="36" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9">
+      <c r="A21" s="32">
+        <v>45555</v>
+      </c>
+      <c r="B21" s="38">
+        <v>45495</v>
+      </c>
+      <c r="C21" s="39" t="s">
         <v>13</v>
       </c>
-      <c r="D3" s="45" t="s">
-        <v>14</v>
-      </c>
-      <c r="E3" s="46">
-        <v>177.8</v>
-      </c>
-      <c r="F3" s="18" t="s">
-        <v>15</v>
-      </c>
-      <c r="G3" s="18" t="s">
-        <v>11</v>
-      </c>
-      <c r="H3" s="18" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9">
-      <c r="A4" s="17">
-        <v>45658</v>
-      </c>
-      <c r="B4" s="44">
-        <v>45457</v>
-      </c>
-      <c r="C4" s="45" t="s">
-        <v>13</v>
-      </c>
-      <c r="D4" s="45" t="s">
-        <v>17</v>
-      </c>
-      <c r="E4" s="46">
-        <v>177.8</v>
-      </c>
-      <c r="F4" s="18" t="s">
-        <v>15</v>
-      </c>
-      <c r="G4" s="18" t="s">
-        <v>11</v>
-      </c>
-      <c r="H4" s="18" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9">
-      <c r="A5" s="17">
-        <v>45689</v>
-      </c>
-      <c r="B5" s="44">
-        <v>45457</v>
-      </c>
-      <c r="C5" s="45" t="s">
-        <v>13</v>
-      </c>
-      <c r="D5" s="45" t="s">
-        <v>18</v>
-      </c>
-      <c r="E5" s="46">
-        <v>177.8</v>
-      </c>
-      <c r="F5" s="18" t="s">
-        <v>15</v>
-      </c>
-      <c r="G5" s="18" t="s">
-        <v>11</v>
-      </c>
-      <c r="H5" s="18" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9">
-      <c r="A6" s="17">
-        <v>45717</v>
-      </c>
-      <c r="B6" s="44">
-        <v>45457</v>
-      </c>
-      <c r="C6" s="45" t="s">
-        <v>13</v>
-      </c>
-      <c r="D6" s="45" t="s">
-        <v>19</v>
-      </c>
-      <c r="E6" s="46">
-        <v>177.8</v>
-      </c>
-      <c r="F6" s="18" t="s">
-        <v>15</v>
-      </c>
-      <c r="G6" s="18" t="s">
-        <v>11</v>
-      </c>
-      <c r="H6" s="18" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9">
-      <c r="A7" s="17">
-        <v>45748</v>
-      </c>
-      <c r="B7" s="44">
-        <v>45457</v>
-      </c>
-      <c r="C7" s="45" t="s">
-        <v>13</v>
-      </c>
-      <c r="D7" s="45" t="s">
-        <v>20</v>
-      </c>
-      <c r="E7" s="46">
-        <v>177.8</v>
-      </c>
-      <c r="F7" s="18" t="s">
-        <v>15</v>
-      </c>
-      <c r="G7" s="18" t="s">
-        <v>11</v>
-      </c>
-      <c r="H7" s="18" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9">
-      <c r="A8" s="17">
-        <v>45708</v>
-      </c>
-      <c r="B8" s="57">
-        <v>45495</v>
-      </c>
-      <c r="C8" s="58" t="s">
-        <v>21</v>
-      </c>
-      <c r="D8" s="58" t="s">
-        <v>22</v>
-      </c>
-      <c r="E8" s="59">
+      <c r="D21" s="39" t="s">
+        <v>38</v>
+      </c>
+      <c r="E21" s="40">
         <v>198</v>
-      </c>
-      <c r="F8" s="18" t="s">
-        <v>23</v>
-      </c>
-      <c r="G8" s="18" t="s">
-        <v>11</v>
-      </c>
-      <c r="H8" s="18" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9">
-      <c r="A9" s="17">
-        <v>45736</v>
-      </c>
-      <c r="B9" s="57">
-        <v>45495</v>
-      </c>
-      <c r="C9" s="58" t="s">
-        <v>21</v>
-      </c>
-      <c r="D9" s="58" t="s">
-        <v>24</v>
-      </c>
-      <c r="E9" s="59">
-        <v>198</v>
-      </c>
-      <c r="F9" s="18" t="s">
-        <v>23</v>
-      </c>
-      <c r="G9" s="18" t="s">
-        <v>11</v>
-      </c>
-      <c r="H9" s="18" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9">
-      <c r="A10" s="17">
-        <v>45767</v>
-      </c>
-      <c r="B10" s="57">
-        <v>45495</v>
-      </c>
-      <c r="C10" s="58" t="s">
-        <v>21</v>
-      </c>
-      <c r="D10" s="58" t="s">
-        <v>25</v>
-      </c>
-      <c r="E10" s="59">
-        <v>198</v>
-      </c>
-      <c r="F10" s="18" t="s">
-        <v>23</v>
-      </c>
-      <c r="G10" s="18" t="s">
-        <v>11</v>
-      </c>
-      <c r="H10" s="18" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9">
-      <c r="A11" s="17">
-        <v>45616</v>
-      </c>
-      <c r="B11" s="57">
-        <v>45495</v>
-      </c>
-      <c r="C11" s="58" t="s">
-        <v>21</v>
-      </c>
-      <c r="D11" s="58" t="s">
-        <v>26</v>
-      </c>
-      <c r="E11" s="59">
-        <v>198</v>
-      </c>
-      <c r="F11" s="18" t="s">
-        <v>23</v>
-      </c>
-      <c r="G11" s="18" t="s">
-        <v>11</v>
-      </c>
-      <c r="H11" s="18" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9">
-      <c r="A12" s="17">
-        <v>45646</v>
-      </c>
-      <c r="B12" s="57">
-        <v>45495</v>
-      </c>
-      <c r="C12" s="58" t="s">
-        <v>21</v>
-      </c>
-      <c r="D12" s="58" t="s">
-        <v>27</v>
-      </c>
-      <c r="E12" s="59">
-        <v>198</v>
-      </c>
-      <c r="F12" s="18" t="s">
-        <v>23</v>
-      </c>
-      <c r="G12" s="18" t="s">
-        <v>11</v>
-      </c>
-      <c r="H12" s="18" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9">
-      <c r="A13" s="17">
-        <v>45677</v>
-      </c>
-      <c r="B13" s="57">
-        <v>45495</v>
-      </c>
-      <c r="C13" s="58" t="s">
-        <v>21</v>
-      </c>
-      <c r="D13" s="58" t="s">
-        <v>28</v>
-      </c>
-      <c r="E13" s="59">
-        <v>198</v>
-      </c>
-      <c r="F13" s="18" t="s">
-        <v>23</v>
-      </c>
-      <c r="G13" s="18" t="s">
-        <v>11</v>
-      </c>
-      <c r="H13" s="18" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9">
-      <c r="A14" s="60">
-        <v>45585</v>
-      </c>
-      <c r="B14" s="60">
-        <v>45585</v>
-      </c>
-      <c r="C14" s="61" t="s">
-        <v>29</v>
-      </c>
-      <c r="D14" s="61" t="s">
-        <v>30</v>
-      </c>
-      <c r="E14" s="65">
-        <v>200</v>
-      </c>
-      <c r="F14" s="61" t="s">
-        <v>23</v>
-      </c>
-      <c r="G14" s="61" t="s">
-        <v>11</v>
-      </c>
-      <c r="H14" s="66" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9">
-      <c r="A15" s="39">
-        <v>45585</v>
-      </c>
-      <c r="B15" s="67">
-        <v>45495</v>
-      </c>
-      <c r="C15" s="68" t="s">
-        <v>21</v>
-      </c>
-      <c r="D15" s="68" t="s">
-        <v>31</v>
-      </c>
-      <c r="E15" s="69">
-        <v>198</v>
-      </c>
-      <c r="F15" s="36" t="s">
-        <v>23</v>
-      </c>
-      <c r="G15" s="36" t="s">
-        <v>11</v>
-      </c>
-      <c r="H15" s="36" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" s="29" customFormat="1">
-      <c r="A16" s="39">
-        <v>45597</v>
-      </c>
-      <c r="B16" s="40">
-        <v>45457</v>
-      </c>
-      <c r="C16" s="41" t="s">
-        <v>13</v>
-      </c>
-      <c r="D16" s="41" t="s">
-        <v>32</v>
-      </c>
-      <c r="E16" s="35">
-        <v>177.8</v>
-      </c>
-      <c r="F16" s="36" t="s">
-        <v>15</v>
-      </c>
-      <c r="G16" s="36" t="s">
-        <v>11</v>
-      </c>
-      <c r="H16" s="42" t="s">
-        <v>12</v>
-      </c>
-      <c r="I16" s="30"/>
-    </row>
-    <row r="17" spans="1:8">
-      <c r="A17" s="39">
-        <v>45582</v>
-      </c>
-      <c r="B17" s="39">
-        <v>45582</v>
-      </c>
-      <c r="C17" s="36" t="s">
-        <v>33</v>
-      </c>
-      <c r="D17" s="36" t="s">
-        <v>34</v>
-      </c>
-      <c r="E17" s="37">
-        <v>45</v>
-      </c>
-      <c r="F17" s="36" t="s">
-        <v>23</v>
-      </c>
-      <c r="G17" s="36" t="s">
-        <v>11</v>
-      </c>
-      <c r="H17" s="42" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8">
-      <c r="A18" s="43">
-        <v>45566</v>
-      </c>
-      <c r="B18" s="43">
-        <v>45566</v>
-      </c>
-      <c r="C18" s="42" t="s">
-        <v>35</v>
-      </c>
-      <c r="D18" s="42" t="s">
-        <v>35</v>
-      </c>
-      <c r="E18" s="38">
-        <v>35</v>
-      </c>
-      <c r="F18" s="36" t="s">
-        <v>23</v>
-      </c>
-      <c r="G18" s="36" t="s">
-        <v>11</v>
-      </c>
-      <c r="H18" s="42" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8">
-      <c r="A19" s="60">
-        <v>45555</v>
-      </c>
-      <c r="B19" s="60">
-        <v>45555</v>
-      </c>
-      <c r="C19" s="61" t="s">
-        <v>29</v>
-      </c>
-      <c r="D19" s="61" t="s">
-        <v>30</v>
-      </c>
-      <c r="E19" s="65">
-        <v>200</v>
-      </c>
-      <c r="F19" s="61" t="s">
-        <v>23</v>
-      </c>
-      <c r="G19" s="61" t="s">
-        <v>11</v>
-      </c>
-      <c r="H19" s="66" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8">
-      <c r="A20" s="39">
-        <v>45555</v>
-      </c>
-      <c r="B20" s="67">
-        <v>45495</v>
-      </c>
-      <c r="C20" s="68" t="s">
-        <v>21</v>
-      </c>
-      <c r="D20" s="68" t="s">
-        <v>36</v>
-      </c>
-      <c r="E20" s="69">
-        <v>198</v>
-      </c>
-      <c r="F20" s="36" t="s">
-        <v>23</v>
-      </c>
-      <c r="G20" s="36" t="s">
-        <v>11</v>
-      </c>
-      <c r="H20" s="36" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8">
-      <c r="A21" s="39">
-        <v>45566</v>
-      </c>
-      <c r="B21" s="40">
-        <v>45457</v>
-      </c>
-      <c r="C21" s="41" t="s">
-        <v>13</v>
-      </c>
-      <c r="D21" s="41" t="s">
-        <v>37</v>
-      </c>
-      <c r="E21" s="35">
-        <v>177.8</v>
       </c>
       <c r="F21" s="36" t="s">
         <v>15</v>
@@ -1496,350 +1544,403 @@
       <c r="G21" s="36" t="s">
         <v>11</v>
       </c>
-      <c r="H21" s="42" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8">
-      <c r="A22" s="39">
+      <c r="H21" s="36" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9">
+      <c r="A22" s="32">
+        <v>45536</v>
+      </c>
+      <c r="B22" s="33">
+        <v>45457</v>
+      </c>
+      <c r="C22" s="34" t="s">
+        <v>8</v>
+      </c>
+      <c r="D22" s="34" t="s">
+        <v>39</v>
+      </c>
+      <c r="E22" s="35">
+        <v>177.8</v>
+      </c>
+      <c r="F22" s="36" t="s">
+        <v>10</v>
+      </c>
+      <c r="G22" s="36" t="s">
+        <v>11</v>
+      </c>
+      <c r="H22" s="36" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9">
+      <c r="A23" s="32">
         <v>45552</v>
       </c>
-      <c r="B22" s="39">
+      <c r="B23" s="32">
         <v>45552</v>
       </c>
-      <c r="C22" s="36" t="s">
-        <v>33</v>
-      </c>
-      <c r="D22" s="36" t="s">
-        <v>34</v>
-      </c>
-      <c r="E22" s="37">
+      <c r="C23" s="36" t="s">
+        <v>30</v>
+      </c>
+      <c r="D23" s="36" t="s">
+        <v>31</v>
+      </c>
+      <c r="E23" s="37">
         <v>45</v>
       </c>
-      <c r="F22" s="36" t="s">
-        <v>23</v>
-      </c>
-      <c r="G22" s="36" t="s">
-        <v>11</v>
-      </c>
-      <c r="H22" s="42" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8">
-      <c r="A23" s="43">
+      <c r="F23" s="36" t="s">
+        <v>15</v>
+      </c>
+      <c r="G23" s="36" t="s">
+        <v>11</v>
+      </c>
+      <c r="H23" s="36" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9">
+      <c r="A24" s="52">
         <v>45536</v>
       </c>
-      <c r="B23" s="43">
+      <c r="B24" s="52">
         <v>45536</v>
       </c>
-      <c r="C23" s="42" t="s">
+      <c r="C24" s="53" t="s">
+        <v>32</v>
+      </c>
+      <c r="D24" s="53" t="s">
+        <v>32</v>
+      </c>
+      <c r="E24" s="54">
         <v>35</v>
       </c>
-      <c r="D23" s="42" t="s">
-        <v>35</v>
-      </c>
-      <c r="E23" s="38">
-        <v>35</v>
-      </c>
-      <c r="F23" s="36" t="s">
-        <v>23</v>
-      </c>
-      <c r="G23" s="36" t="s">
-        <v>11</v>
-      </c>
-      <c r="H23" s="42" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8">
-      <c r="A24" s="53">
-        <v>45505</v>
-      </c>
-      <c r="B24" s="53">
-        <v>45474</v>
-      </c>
-      <c r="C24" s="54" t="s">
-        <v>38</v>
-      </c>
-      <c r="D24" s="54" t="s">
-        <v>39</v>
-      </c>
-      <c r="E24" s="55">
-        <v>400</v>
-      </c>
-      <c r="F24" s="54" t="s">
+      <c r="F24" s="55" t="s">
+        <v>15</v>
+      </c>
+      <c r="G24" s="55" t="s">
+        <v>11</v>
+      </c>
+      <c r="H24" s="55" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9">
+      <c r="A25" s="60">
+        <v>45526</v>
+      </c>
+      <c r="B25" s="60">
+        <v>45526</v>
+      </c>
+      <c r="C25" s="61" t="s">
         <v>40</v>
       </c>
-      <c r="G24" s="56" t="s">
-        <v>11</v>
-      </c>
-      <c r="H24" s="54" t="s">
+      <c r="D25" s="61" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="25" spans="1:8">
-      <c r="A25" s="23">
+      <c r="E25" s="62">
+        <v>75.599999999999994</v>
+      </c>
+      <c r="F25" s="61" t="s">
+        <v>15</v>
+      </c>
+      <c r="G25" s="61" t="s">
+        <v>11</v>
+      </c>
+      <c r="H25" s="61" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9">
+      <c r="A26" s="60">
+        <v>45555</v>
+      </c>
+      <c r="B26" s="60">
+        <v>45520</v>
+      </c>
+      <c r="C26" s="61" t="s">
+        <v>8</v>
+      </c>
+      <c r="D26" s="61" t="s">
+        <v>43</v>
+      </c>
+      <c r="E26" s="62">
+        <v>200</v>
+      </c>
+      <c r="F26" s="61" t="s">
+        <v>44</v>
+      </c>
+      <c r="G26" s="61" t="s">
+        <v>11</v>
+      </c>
+      <c r="H26" s="61" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9">
+      <c r="A27" s="60">
+        <v>45555</v>
+      </c>
+      <c r="B27" s="60">
+        <v>45520</v>
+      </c>
+      <c r="C27" s="61" t="s">
+        <v>45</v>
+      </c>
+      <c r="D27" s="61" t="s">
+        <v>46</v>
+      </c>
+      <c r="E27" s="62">
+        <v>80.040000000000006</v>
+      </c>
+      <c r="F27" s="61" t="s">
+        <v>44</v>
+      </c>
+      <c r="G27" s="61" t="s">
+        <v>11</v>
+      </c>
+      <c r="H27" s="61" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" s="50" customFormat="1">
+      <c r="A28" s="60">
+        <v>45555</v>
+      </c>
+      <c r="B28" s="63">
+        <v>45522</v>
+      </c>
+      <c r="C28" s="64" t="s">
+        <v>45</v>
+      </c>
+      <c r="D28" s="64" t="s">
+        <v>47</v>
+      </c>
+      <c r="E28" s="65">
+        <v>150</v>
+      </c>
+      <c r="F28" s="64" t="s">
+        <v>44</v>
+      </c>
+      <c r="G28" s="61" t="s">
+        <v>11</v>
+      </c>
+      <c r="H28" s="64" t="s">
+        <v>42</v>
+      </c>
+      <c r="I28" s="51"/>
+    </row>
+    <row r="29" spans="1:9">
+      <c r="A29" s="59">
+        <v>45555</v>
+      </c>
+      <c r="B29" s="56">
+        <v>45523</v>
+      </c>
+      <c r="C29" s="57" t="s">
+        <v>48</v>
+      </c>
+      <c r="D29" s="57" t="s">
+        <v>49</v>
+      </c>
+      <c r="E29" s="58">
+        <v>13.5</v>
+      </c>
+      <c r="F29" s="57" t="s">
+        <v>44</v>
+      </c>
+      <c r="G29" s="57" t="s">
+        <v>11</v>
+      </c>
+      <c r="H29" s="57" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9">
+      <c r="A30" s="59">
+        <v>45555</v>
+      </c>
+      <c r="B30" s="56">
+        <v>45522</v>
+      </c>
+      <c r="C30" s="57" t="s">
+        <v>50</v>
+      </c>
+      <c r="D30" s="57" t="s">
+        <v>51</v>
+      </c>
+      <c r="E30" s="58">
+        <v>10.79</v>
+      </c>
+      <c r="F30" s="57" t="s">
+        <v>44</v>
+      </c>
+      <c r="G30" s="57" t="s">
+        <v>11</v>
+      </c>
+      <c r="H30" s="57" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9">
+      <c r="A31" s="59">
+        <v>45555</v>
+      </c>
+      <c r="B31" s="56">
+        <v>45522</v>
+      </c>
+      <c r="C31" s="57" t="s">
+        <v>52</v>
+      </c>
+      <c r="D31" s="57" t="s">
+        <v>53</v>
+      </c>
+      <c r="E31" s="58">
+        <v>24.3</v>
+      </c>
+      <c r="F31" s="57" t="s">
+        <v>44</v>
+      </c>
+      <c r="G31" s="57" t="s">
+        <v>11</v>
+      </c>
+      <c r="H31" s="57" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9">
+      <c r="A32" s="59">
+        <v>45555</v>
+      </c>
+      <c r="B32" s="56">
+        <v>45522</v>
+      </c>
+      <c r="C32" s="57" t="s">
+        <v>48</v>
+      </c>
+      <c r="D32" s="57" t="s">
+        <v>54</v>
+      </c>
+      <c r="E32" s="58">
+        <v>18.75</v>
+      </c>
+      <c r="F32" s="57" t="s">
+        <v>44</v>
+      </c>
+      <c r="G32" s="57" t="s">
+        <v>11</v>
+      </c>
+      <c r="H32" s="57" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8">
+      <c r="A33" s="59">
+        <v>45555</v>
+      </c>
+      <c r="B33" s="56">
+        <v>45522</v>
+      </c>
+      <c r="C33" s="57" t="s">
+        <v>55</v>
+      </c>
+      <c r="D33" s="57" t="s">
+        <v>56</v>
+      </c>
+      <c r="E33" s="58">
+        <v>32.47</v>
+      </c>
+      <c r="F33" s="57" t="s">
+        <v>44</v>
+      </c>
+      <c r="G33" s="57" t="s">
+        <v>11</v>
+      </c>
+      <c r="H33" s="57" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8">
+      <c r="A34" s="59">
+        <v>45555</v>
+      </c>
+      <c r="B34" s="56">
+        <v>45522</v>
+      </c>
+      <c r="C34" s="57" t="s">
+        <v>48</v>
+      </c>
+      <c r="D34" s="57" t="s">
+        <v>57</v>
+      </c>
+      <c r="E34" s="58">
+        <v>45.34</v>
+      </c>
+      <c r="F34" s="57" t="s">
+        <v>44</v>
+      </c>
+      <c r="G34" s="57" t="s">
+        <v>11</v>
+      </c>
+      <c r="H34" s="57" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8">
+      <c r="A35" s="59">
+        <v>45555</v>
+      </c>
+      <c r="B35" s="56">
+        <v>45522</v>
+      </c>
+      <c r="C35" s="57" t="s">
+        <v>48</v>
+      </c>
+      <c r="D35" s="57" t="s">
+        <v>58</v>
+      </c>
+      <c r="E35" s="58">
+        <v>27</v>
+      </c>
+      <c r="F35" s="57" t="s">
+        <v>44</v>
+      </c>
+      <c r="G35" s="57" t="s">
+        <v>11</v>
+      </c>
+      <c r="H35" s="57" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8">
+      <c r="A36" s="66">
         <v>45524</v>
       </c>
-      <c r="B25" s="23">
+      <c r="B36" s="66">
         <v>45524</v>
       </c>
-      <c r="C25" s="24" t="s">
-        <v>29</v>
-      </c>
-      <c r="D25" s="24" t="s">
-        <v>30</v>
-      </c>
-      <c r="E25" s="33">
-        <v>200</v>
-      </c>
-      <c r="F25" s="24" t="s">
-        <v>23</v>
-      </c>
-      <c r="G25" s="24" t="s">
-        <v>11</v>
-      </c>
-      <c r="H25" s="24" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8">
-      <c r="A26" s="23">
-        <v>45524</v>
-      </c>
-      <c r="B26" s="62">
-        <v>45495</v>
-      </c>
-      <c r="C26" s="63" t="s">
-        <v>21</v>
-      </c>
-      <c r="D26" s="63" t="s">
-        <v>42</v>
-      </c>
-      <c r="E26" s="64">
-        <v>198</v>
-      </c>
-      <c r="F26" s="24" t="s">
-        <v>23</v>
-      </c>
-      <c r="G26" s="24" t="s">
-        <v>11</v>
-      </c>
-      <c r="H26" s="24" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8">
-      <c r="A27" s="23">
-        <v>45536</v>
-      </c>
-      <c r="B27" s="25">
-        <v>45457</v>
-      </c>
-      <c r="C27" s="26" t="s">
-        <v>13</v>
-      </c>
-      <c r="D27" s="26" t="s">
-        <v>43</v>
-      </c>
-      <c r="E27" s="34">
-        <v>177.8</v>
-      </c>
-      <c r="F27" s="24" t="s">
-        <v>15</v>
-      </c>
-      <c r="G27" s="24" t="s">
-        <v>11</v>
-      </c>
-      <c r="H27" s="24" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8" ht="16.5" customHeight="1">
-      <c r="A28" s="53">
-        <v>45505</v>
-      </c>
-      <c r="B28" s="53">
-        <v>45474</v>
-      </c>
-      <c r="C28" s="54" t="s">
-        <v>13</v>
-      </c>
-      <c r="D28" s="54" t="s">
+      <c r="C36" s="67" t="s">
+        <v>59</v>
+      </c>
+      <c r="D36" s="67" t="s">
+        <v>60</v>
+      </c>
+      <c r="E36" s="68">
+        <v>20</v>
+      </c>
+      <c r="F36" s="67" t="s">
         <v>44</v>
       </c>
-      <c r="E28" s="55">
-        <v>89.9</v>
-      </c>
-      <c r="F28" s="56" t="s">
-        <v>23</v>
-      </c>
-      <c r="G28" s="56" t="s">
-        <v>11</v>
-      </c>
-      <c r="H28" s="54" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8">
-      <c r="A29" s="23">
-        <v>45526</v>
-      </c>
-      <c r="B29" s="23">
-        <v>45526</v>
-      </c>
-      <c r="C29" s="24" t="s">
-        <v>45</v>
-      </c>
-      <c r="D29" s="24" t="s">
-        <v>46</v>
-      </c>
-      <c r="E29" s="33">
-        <v>75.599999999999994</v>
-      </c>
-      <c r="F29" s="24" t="s">
-        <v>23</v>
-      </c>
-      <c r="G29" s="24" t="s">
-        <v>11</v>
-      </c>
-      <c r="H29" s="24" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8">
-      <c r="A30" s="23">
-        <v>45521</v>
-      </c>
-      <c r="B30" s="23">
-        <v>45521</v>
-      </c>
-      <c r="C30" s="24" t="s">
-        <v>33</v>
-      </c>
-      <c r="D30" s="24" t="s">
-        <v>34</v>
-      </c>
-      <c r="E30" s="33">
-        <v>45</v>
-      </c>
-      <c r="F30" s="24" t="s">
-        <v>23</v>
-      </c>
-      <c r="G30" s="24" t="s">
-        <v>11</v>
-      </c>
-      <c r="H30" s="24" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8">
-      <c r="A31" s="27">
-        <v>45505</v>
-      </c>
-      <c r="B31" s="27">
-        <v>45505</v>
-      </c>
-      <c r="C31" s="28" t="s">
-        <v>35</v>
-      </c>
-      <c r="D31" s="28" t="s">
-        <v>35</v>
-      </c>
-      <c r="E31" s="32">
-        <v>35</v>
-      </c>
-      <c r="F31" s="24" t="s">
-        <v>23</v>
-      </c>
-      <c r="G31" s="24" t="s">
-        <v>11</v>
-      </c>
-      <c r="H31" s="24" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8">
-      <c r="A32" s="19">
-        <v>45511</v>
-      </c>
-      <c r="B32" s="13">
-        <v>45457</v>
-      </c>
-      <c r="C32" s="14" t="s">
-        <v>13</v>
-      </c>
-      <c r="D32" s="14" t="s">
-        <v>47</v>
-      </c>
-      <c r="E32" s="31">
-        <v>177.8</v>
-      </c>
-      <c r="F32" s="20" t="s">
-        <v>15</v>
-      </c>
-      <c r="G32" s="20" t="s">
-        <v>11</v>
-      </c>
-      <c r="H32" s="20" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8">
-      <c r="A33" s="19">
-        <v>45511</v>
-      </c>
-      <c r="B33" s="13">
-        <v>45473</v>
-      </c>
-      <c r="C33" s="14" t="s">
-        <v>49</v>
-      </c>
-      <c r="D33" s="14" t="s">
-        <v>50</v>
-      </c>
-      <c r="E33" s="31">
-        <v>19.899999999999999</v>
-      </c>
-      <c r="F33" s="20" t="s">
-        <v>15</v>
-      </c>
-      <c r="G33" s="20" t="s">
-        <v>11</v>
-      </c>
-      <c r="H33" s="20" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8">
-      <c r="A34" s="49">
-        <v>45504</v>
-      </c>
-      <c r="B34" s="49">
-        <v>45504</v>
-      </c>
-      <c r="C34" s="50" t="s">
-        <v>51</v>
-      </c>
-      <c r="D34" s="50" t="s">
-        <v>52</v>
-      </c>
-      <c r="E34" s="51">
-        <v>300</v>
-      </c>
-      <c r="F34" s="52" t="s">
-        <v>23</v>
-      </c>
-      <c r="G34" s="52" t="s">
-        <v>53</v>
-      </c>
-      <c r="H34" s="52" t="s">
-        <v>54</v>
+      <c r="G36" s="67" t="s">
+        <v>11</v>
+      </c>
+      <c r="H36" s="67" t="s">
+        <v>61</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:H34" xr:uid="{46ED8187-7945-4150-89A5-9803D0435B02}"/>
+  <autoFilter ref="A1:H35" xr:uid="{46ED8187-7945-4150-89A5-9803D0435B02}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -1863,24 +1964,24 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
-        <v>55</v>
+        <v>62</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>56</v>
+        <v>63</v>
       </c>
       <c r="C1" s="3" t="s">
         <v>4</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>57</v>
+        <v>64</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>58</v>
+        <v>65</v>
       </c>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="4" t="s">
-        <v>59</v>
+        <v>66</v>
       </c>
       <c r="B2" s="5">
         <v>1</v>
@@ -1892,12 +1993,12 @@
         <v>44983</v>
       </c>
       <c r="E2" s="8" t="s">
-        <v>60</v>
+        <v>67</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="4" t="s">
-        <v>59</v>
+        <v>66</v>
       </c>
       <c r="B3" s="5">
         <v>2</v>
@@ -1909,12 +2010,12 @@
         <v>45011</v>
       </c>
       <c r="E3" s="8" t="s">
-        <v>60</v>
+        <v>67</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="4" t="s">
-        <v>59</v>
+        <v>66</v>
       </c>
       <c r="B4" s="5">
         <v>3</v>
@@ -1926,12 +2027,12 @@
         <v>45042</v>
       </c>
       <c r="E4" s="8" t="s">
-        <v>60</v>
+        <v>67</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="4" t="s">
-        <v>59</v>
+        <v>66</v>
       </c>
       <c r="B5" s="5">
         <v>4</v>
@@ -1943,12 +2044,12 @@
         <v>45072</v>
       </c>
       <c r="E5" s="8" t="s">
-        <v>60</v>
+        <v>67</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="4" t="s">
-        <v>59</v>
+        <v>66</v>
       </c>
       <c r="B6" s="5">
         <v>5</v>
@@ -1960,12 +2061,12 @@
         <v>45103</v>
       </c>
       <c r="E6" s="8" t="s">
-        <v>60</v>
+        <v>67</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" s="4" t="s">
-        <v>59</v>
+        <v>66</v>
       </c>
       <c r="B7" s="5">
         <v>6</v>
@@ -1977,12 +2078,12 @@
         <v>45133</v>
       </c>
       <c r="E7" s="8" t="s">
-        <v>60</v>
+        <v>67</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" s="4" t="s">
-        <v>59</v>
+        <v>66</v>
       </c>
       <c r="B8" s="5">
         <v>7</v>
@@ -1994,12 +2095,12 @@
         <v>45164</v>
       </c>
       <c r="E8" s="8" t="s">
-        <v>60</v>
+        <v>67</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" s="4" t="s">
-        <v>59</v>
+        <v>66</v>
       </c>
       <c r="B9" s="5">
         <v>8</v>
@@ -2011,12 +2112,12 @@
         <v>45195</v>
       </c>
       <c r="E9" s="8" t="s">
-        <v>60</v>
+        <v>67</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" s="4" t="s">
-        <v>59</v>
+        <v>66</v>
       </c>
       <c r="B10" s="5">
         <v>9</v>
@@ -2028,12 +2129,12 @@
         <v>45225</v>
       </c>
       <c r="E10" s="8" t="s">
-        <v>60</v>
+        <v>67</v>
       </c>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" s="4" t="s">
-        <v>59</v>
+        <v>66</v>
       </c>
       <c r="B11" s="5">
         <v>10</v>
@@ -2045,12 +2146,12 @@
         <v>45256</v>
       </c>
       <c r="E11" s="8" t="s">
-        <v>60</v>
+        <v>67</v>
       </c>
     </row>
     <row r="12" spans="1:5">
       <c r="A12" s="4" t="s">
-        <v>59</v>
+        <v>66</v>
       </c>
       <c r="B12" s="5">
         <v>11</v>
@@ -2062,12 +2163,12 @@
         <v>45286</v>
       </c>
       <c r="E12" s="8" t="s">
-        <v>60</v>
+        <v>67</v>
       </c>
     </row>
     <row r="13" spans="1:5">
       <c r="A13" s="4" t="s">
-        <v>59</v>
+        <v>66</v>
       </c>
       <c r="B13" s="5">
         <v>12</v>
@@ -2079,12 +2180,12 @@
         <v>45317</v>
       </c>
       <c r="E13" s="8" t="s">
-        <v>60</v>
+        <v>67</v>
       </c>
     </row>
     <row r="14" spans="1:5">
       <c r="A14" s="4" t="s">
-        <v>59</v>
+        <v>66</v>
       </c>
       <c r="B14" s="5">
         <v>13</v>
@@ -2096,12 +2197,12 @@
         <v>45348</v>
       </c>
       <c r="E14" s="8" t="s">
-        <v>60</v>
+        <v>67</v>
       </c>
     </row>
     <row r="15" spans="1:5">
       <c r="A15" s="4" t="s">
-        <v>59</v>
+        <v>66</v>
       </c>
       <c r="B15" s="5">
         <v>14</v>
@@ -2113,12 +2214,12 @@
         <v>45377</v>
       </c>
       <c r="E15" s="8" t="s">
-        <v>60</v>
+        <v>67</v>
       </c>
     </row>
     <row r="16" spans="1:5">
       <c r="A16" s="4" t="s">
-        <v>59</v>
+        <v>66</v>
       </c>
       <c r="B16" s="5">
         <v>15</v>
@@ -2130,12 +2231,12 @@
         <v>45408</v>
       </c>
       <c r="E16" s="8" t="s">
-        <v>60</v>
+        <v>67</v>
       </c>
     </row>
     <row r="17" spans="1:5">
       <c r="A17" s="4" t="s">
-        <v>59</v>
+        <v>66</v>
       </c>
       <c r="B17" s="5">
         <v>16</v>
@@ -2147,12 +2248,12 @@
         <v>45438</v>
       </c>
       <c r="E17" s="8" t="s">
-        <v>60</v>
+        <v>67</v>
       </c>
     </row>
     <row r="18" spans="1:5">
       <c r="A18" s="4" t="s">
-        <v>59</v>
+        <v>66</v>
       </c>
       <c r="B18" s="5">
         <v>17</v>
@@ -2164,12 +2265,12 @@
         <v>45469</v>
       </c>
       <c r="E18" s="8" t="s">
-        <v>60</v>
+        <v>67</v>
       </c>
     </row>
     <row r="19" spans="1:5">
       <c r="A19" s="4" t="s">
-        <v>59</v>
+        <v>66</v>
       </c>
       <c r="B19" s="5">
         <v>18</v>
@@ -2181,12 +2282,12 @@
         <v>45499</v>
       </c>
       <c r="E19" s="8" t="s">
-        <v>60</v>
+        <v>67</v>
       </c>
     </row>
     <row r="20" spans="1:5">
       <c r="A20" s="4" t="s">
-        <v>59</v>
+        <v>66</v>
       </c>
       <c r="B20" s="5">
         <v>19</v>
@@ -2198,12 +2299,12 @@
         <v>45530</v>
       </c>
       <c r="E20" s="8" t="s">
-        <v>60</v>
+        <v>67</v>
       </c>
     </row>
     <row r="21" spans="1:5">
       <c r="A21" s="4" t="s">
-        <v>59</v>
+        <v>66</v>
       </c>
       <c r="B21" s="5">
         <v>20</v>
@@ -2215,12 +2316,12 @@
         <v>45561</v>
       </c>
       <c r="E21" s="8" t="s">
-        <v>60</v>
+        <v>67</v>
       </c>
     </row>
     <row r="22" spans="1:5">
       <c r="A22" s="4" t="s">
-        <v>59</v>
+        <v>66</v>
       </c>
       <c r="B22" s="5">
         <v>21</v>
@@ -2232,12 +2333,12 @@
         <v>45591</v>
       </c>
       <c r="E22" s="8" t="s">
-        <v>60</v>
+        <v>67</v>
       </c>
     </row>
     <row r="23" spans="1:5">
       <c r="A23" s="4" t="s">
-        <v>61</v>
+        <v>68</v>
       </c>
       <c r="B23" s="5">
         <v>1</v>
@@ -2249,12 +2350,12 @@
         <v>45139</v>
       </c>
       <c r="E23" s="8" t="s">
-        <v>60</v>
+        <v>67</v>
       </c>
     </row>
     <row r="24" spans="1:5">
       <c r="A24" s="4" t="s">
-        <v>61</v>
+        <v>68</v>
       </c>
       <c r="B24" s="5">
         <v>2</v>
@@ -2266,12 +2367,12 @@
         <v>45170</v>
       </c>
       <c r="E24" s="8" t="s">
-        <v>60</v>
+        <v>67</v>
       </c>
     </row>
     <row r="25" spans="1:5">
       <c r="A25" s="4" t="s">
-        <v>61</v>
+        <v>68</v>
       </c>
       <c r="B25" s="5">
         <v>3</v>
@@ -2283,12 +2384,12 @@
         <v>45200</v>
       </c>
       <c r="E25" s="8" t="s">
-        <v>60</v>
+        <v>67</v>
       </c>
     </row>
     <row r="26" spans="1:5">
       <c r="A26" s="4" t="s">
-        <v>61</v>
+        <v>68</v>
       </c>
       <c r="B26" s="5">
         <v>4</v>
@@ -2300,12 +2401,12 @@
         <v>45231</v>
       </c>
       <c r="E26" s="8" t="s">
-        <v>60</v>
+        <v>67</v>
       </c>
     </row>
     <row r="27" spans="1:5">
       <c r="A27" s="4" t="s">
-        <v>61</v>
+        <v>68</v>
       </c>
       <c r="B27" s="5">
         <v>5</v>
@@ -2317,12 +2418,12 @@
         <v>45261</v>
       </c>
       <c r="E27" s="8" t="s">
-        <v>60</v>
+        <v>67</v>
       </c>
     </row>
     <row r="28" spans="1:5">
       <c r="A28" s="4" t="s">
-        <v>61</v>
+        <v>68</v>
       </c>
       <c r="B28" s="5">
         <v>6</v>
@@ -2334,12 +2435,12 @@
         <v>45292</v>
       </c>
       <c r="E28" s="8" t="s">
-        <v>60</v>
+        <v>67</v>
       </c>
     </row>
     <row r="29" spans="1:5">
       <c r="A29" s="4" t="s">
-        <v>62</v>
+        <v>69</v>
       </c>
       <c r="B29" s="5">
         <v>1</v>
@@ -2351,12 +2452,12 @@
         <v>45170</v>
       </c>
       <c r="E29" s="8" t="s">
-        <v>60</v>
+        <v>67</v>
       </c>
     </row>
     <row r="30" spans="1:5">
       <c r="A30" s="4" t="s">
-        <v>62</v>
+        <v>69</v>
       </c>
       <c r="B30" s="5">
         <v>2</v>
@@ -2368,12 +2469,12 @@
         <v>45200</v>
       </c>
       <c r="E30" s="8" t="s">
-        <v>60</v>
+        <v>67</v>
       </c>
     </row>
     <row r="31" spans="1:5">
       <c r="A31" s="4" t="s">
-        <v>62</v>
+        <v>69</v>
       </c>
       <c r="B31" s="5">
         <v>3</v>
@@ -2385,12 +2486,12 @@
         <v>45231</v>
       </c>
       <c r="E31" s="8" t="s">
-        <v>60</v>
+        <v>67</v>
       </c>
     </row>
     <row r="32" spans="1:5">
       <c r="A32" s="4" t="s">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="B32" s="5">
         <v>1</v>
@@ -2402,12 +2503,12 @@
         <v>45383</v>
       </c>
       <c r="E32" s="8" t="s">
-        <v>60</v>
+        <v>67</v>
       </c>
     </row>
     <row r="33" spans="1:5">
       <c r="A33" s="4" t="s">
-        <v>64</v>
+        <v>71</v>
       </c>
       <c r="B33" s="5">
         <v>1</v>
@@ -2419,12 +2520,12 @@
         <v>45309</v>
       </c>
       <c r="E33" s="8" t="s">
-        <v>60</v>
+        <v>67</v>
       </c>
     </row>
     <row r="34" spans="1:5">
       <c r="A34" s="4" t="s">
-        <v>64</v>
+        <v>71</v>
       </c>
       <c r="B34" s="5">
         <v>2</v>
@@ -2436,12 +2537,12 @@
         <v>45344</v>
       </c>
       <c r="E34" s="8" t="s">
-        <v>60</v>
+        <v>67</v>
       </c>
     </row>
     <row r="35" spans="1:5">
       <c r="A35" s="4" t="s">
-        <v>64</v>
+        <v>71</v>
       </c>
       <c r="B35" s="5">
         <v>3</v>
@@ -2453,12 +2554,12 @@
         <v>45372</v>
       </c>
       <c r="E35" s="8" t="s">
-        <v>60</v>
+        <v>67</v>
       </c>
     </row>
     <row r="36" spans="1:5" ht="27">
-      <c r="A36" s="21" t="s">
-        <v>65</v>
+      <c r="A36" s="15" t="s">
+        <v>72</v>
       </c>
       <c r="B36" s="5">
         <v>1</v>
@@ -2470,12 +2571,12 @@
         <v>45330</v>
       </c>
       <c r="E36" s="8" t="s">
-        <v>60</v>
+        <v>67</v>
       </c>
     </row>
     <row r="37" spans="1:5" ht="27">
-      <c r="A37" s="21" t="s">
-        <v>65</v>
+      <c r="A37" s="15" t="s">
+        <v>72</v>
       </c>
       <c r="B37" s="5">
         <v>2</v>
@@ -2487,12 +2588,12 @@
         <v>45330</v>
       </c>
       <c r="E37" s="8" t="s">
-        <v>60</v>
+        <v>67</v>
       </c>
     </row>
     <row r="38" spans="1:5" ht="27">
-      <c r="A38" s="21" t="s">
-        <v>65</v>
+      <c r="A38" s="15" t="s">
+        <v>72</v>
       </c>
       <c r="B38" s="5">
         <v>3</v>
@@ -2504,12 +2605,12 @@
         <v>45330</v>
       </c>
       <c r="E38" s="8" t="s">
-        <v>60</v>
+        <v>67</v>
       </c>
     </row>
     <row r="39" spans="1:5" ht="27">
-      <c r="A39" s="21" t="s">
-        <v>65</v>
+      <c r="A39" s="15" t="s">
+        <v>72</v>
       </c>
       <c r="B39" s="5">
         <v>4</v>
@@ -2521,12 +2622,12 @@
         <v>45330</v>
       </c>
       <c r="E39" s="8" t="s">
-        <v>60</v>
+        <v>67</v>
       </c>
     </row>
     <row r="40" spans="1:5" ht="27">
-      <c r="A40" s="21" t="s">
-        <v>65</v>
+      <c r="A40" s="15" t="s">
+        <v>72</v>
       </c>
       <c r="B40" s="5">
         <v>5</v>
@@ -2538,12 +2639,12 @@
         <v>45330</v>
       </c>
       <c r="E40" s="8" t="s">
-        <v>60</v>
+        <v>67</v>
       </c>
     </row>
     <row r="41" spans="1:5" ht="27">
-      <c r="A41" s="21" t="s">
-        <v>65</v>
+      <c r="A41" s="15" t="s">
+        <v>72</v>
       </c>
       <c r="B41" s="5">
         <v>6</v>
@@ -2555,12 +2656,12 @@
         <v>45481</v>
       </c>
       <c r="E41" s="8" t="s">
-        <v>60</v>
+        <v>67</v>
       </c>
     </row>
     <row r="42" spans="1:5">
       <c r="A42" s="4" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="B42" s="5">
         <v>1</v>
@@ -2572,12 +2673,12 @@
         <v>45324</v>
       </c>
       <c r="E42" s="8" t="s">
-        <v>60</v>
+        <v>67</v>
       </c>
     </row>
     <row r="43" spans="1:5">
       <c r="A43" s="4" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="B43" s="5">
         <v>2</v>
@@ -2589,12 +2690,12 @@
         <v>45324</v>
       </c>
       <c r="E43" s="8" t="s">
-        <v>60</v>
+        <v>67</v>
       </c>
     </row>
     <row r="44" spans="1:5" ht="27">
-      <c r="A44" s="21" t="s">
-        <v>67</v>
+      <c r="A44" s="15" t="s">
+        <v>74</v>
       </c>
       <c r="B44" s="5">
         <v>1</v>
@@ -2606,12 +2707,12 @@
         <v>45481</v>
       </c>
       <c r="E44" s="8" t="s">
-        <v>60</v>
+        <v>67</v>
       </c>
     </row>
     <row r="45" spans="1:5" ht="27">
-      <c r="A45" s="22" t="s">
-        <v>67</v>
+      <c r="A45" s="16" t="s">
+        <v>74</v>
       </c>
       <c r="B45" s="9">
         <v>2</v>
@@ -2623,12 +2724,12 @@
         <v>45481</v>
       </c>
       <c r="E45" s="12" t="s">
-        <v>68</v>
+        <v>75</v>
       </c>
     </row>
     <row r="46" spans="1:5" ht="27">
-      <c r="A46" s="22" t="s">
-        <v>67</v>
+      <c r="A46" s="16" t="s">
+        <v>74</v>
       </c>
       <c r="B46" s="9">
         <v>3</v>
@@ -2640,12 +2741,12 @@
         <v>45481</v>
       </c>
       <c r="E46" s="12" t="s">
-        <v>68</v>
+        <v>75</v>
       </c>
     </row>
     <row r="47" spans="1:5" ht="27">
-      <c r="A47" s="22" t="s">
-        <v>67</v>
+      <c r="A47" s="16" t="s">
+        <v>74</v>
       </c>
       <c r="B47" s="9">
         <v>4</v>
@@ -2657,12 +2758,12 @@
         <v>45481</v>
       </c>
       <c r="E47" s="12" t="s">
-        <v>68</v>
+        <v>75</v>
       </c>
     </row>
     <row r="48" spans="1:5" ht="27">
-      <c r="A48" s="22" t="s">
-        <v>67</v>
+      <c r="A48" s="16" t="s">
+        <v>74</v>
       </c>
       <c r="B48" s="9">
         <v>5</v>
@@ -2674,12 +2775,12 @@
         <v>45481</v>
       </c>
       <c r="E48" s="12" t="s">
-        <v>68</v>
+        <v>75</v>
       </c>
     </row>
     <row r="49" spans="1:5" ht="27">
-      <c r="A49" s="22" t="s">
-        <v>67</v>
+      <c r="A49" s="16" t="s">
+        <v>74</v>
       </c>
       <c r="B49" s="9">
         <v>6</v>
@@ -2691,12 +2792,12 @@
         <v>45481</v>
       </c>
       <c r="E49" s="12" t="s">
-        <v>68</v>
+        <v>75</v>
       </c>
     </row>
     <row r="50" spans="1:5" ht="27">
-      <c r="A50" s="22" t="s">
-        <v>67</v>
+      <c r="A50" s="16" t="s">
+        <v>74</v>
       </c>
       <c r="B50" s="9">
         <v>7</v>
@@ -2708,12 +2809,12 @@
         <v>45481</v>
       </c>
       <c r="E50" s="12" t="s">
-        <v>68</v>
+        <v>75</v>
       </c>
     </row>
     <row r="51" spans="1:5" ht="27">
-      <c r="A51" s="22" t="s">
-        <v>67</v>
+      <c r="A51" s="16" t="s">
+        <v>74</v>
       </c>
       <c r="B51" s="9">
         <v>8</v>
@@ -2725,12 +2826,12 @@
         <v>45481</v>
       </c>
       <c r="E51" s="12" t="s">
-        <v>68</v>
+        <v>75</v>
       </c>
     </row>
     <row r="52" spans="1:5" ht="27">
-      <c r="A52" s="22" t="s">
-        <v>67</v>
+      <c r="A52" s="16" t="s">
+        <v>74</v>
       </c>
       <c r="B52" s="9">
         <v>9</v>
@@ -2742,12 +2843,12 @@
         <v>45481</v>
       </c>
       <c r="E52" s="12" t="s">
-        <v>68</v>
+        <v>75</v>
       </c>
     </row>
     <row r="53" spans="1:5" ht="27">
-      <c r="A53" s="22" t="s">
-        <v>67</v>
+      <c r="A53" s="16" t="s">
+        <v>74</v>
       </c>
       <c r="B53" s="9">
         <v>10</v>
@@ -2759,11 +2860,11 @@
         <v>45481</v>
       </c>
       <c r="E53" s="12" t="s">
-        <v>68</v>
+        <v>75</v>
       </c>
     </row>
     <row r="54" spans="1:5">
-      <c r="C54" s="48">
+      <c r="C54" s="28">
         <f>SUM(C2:C53)</f>
         <v>14523.249999999996</v>
       </c>
